--- a/Pennsylvania/LocalIncometax.xlsx
+++ b/Pennsylvania/LocalIncometax.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ewc\tax_worksheets\Pennsylvania\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JCC\ewc\taxes\tax_worksheets\Pennsylvania\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -51,9 +51,6 @@
     <t xml:space="preserve">  4. </t>
   </si>
   <si>
-    <t xml:space="preserve"> Total Taxable Earned Income (Subtract Line 2 from Line 1 and add Line 3)                       </t>
-  </si>
-  <si>
     <t xml:space="preserve">  5. </t>
   </si>
   <si>
@@ -100,9 +97,6 @@
   </si>
   <si>
     <t xml:space="preserve"> 13. </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> TOTAL PAYMENTS and CREDITS (Add lines 10 through 12)                                           </t>
   </si>
   <si>
     <t xml:space="preserve"> 14. </t>
@@ -260,6 +254,73 @@
       <t xml:space="preserve"> (Add Lines 16, 17, and 18) Payable to HAB-EIT                                </t>
     </r>
   </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">Total Taxable Earned Income </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">(Subtract Line 2 from Line 1 and add Line 3)                       </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>TOTAL PAYMENTS</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> and </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>CREDITS</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> (Add lines 10 through 12)                                           </t>
+    </r>
+  </si>
 </sst>
 </file>
 
@@ -267,21 +328,14 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="2">
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="165" formatCode="0.000%"/>
+    <numFmt numFmtId="164" formatCode="0.000%"/>
   </numFmts>
-  <fonts count="22" x14ac:knownFonts="1">
+  <fonts count="21" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Times New Roman"/>
       <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <color indexed="8"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
     </font>
     <font>
       <b/>
@@ -741,73 +795,73 @@
   </borders>
   <cellStyleXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="30" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="27" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="30" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="27" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" xfId="28" applyFont="1"/>
+    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" xfId="28" applyFont="1"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="20" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="44" fontId="3" fillId="0" borderId="1" xfId="28" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="19" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="2" fillId="0" borderId="1" xfId="28" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="49" fontId="20" fillId="34" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="44" fontId="20" fillId="0" borderId="1" xfId="28" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="3" fillId="0" borderId="0" xfId="40" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" xfId="40" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="10" fontId="3" fillId="0" borderId="0" xfId="28" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="21" fillId="33" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="19" fillId="34" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="19" fillId="0" borderId="1" xfId="28" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="2" fillId="0" borderId="0" xfId="40" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="40" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="10" fontId="2" fillId="0" borderId="0" xfId="28" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="20" fillId="33" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="44">
     <cellStyle name="20% - Accent1" xfId="1" builtinId="30" customBuiltin="1"/>
@@ -1133,8 +1187,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1148,20 +1202,20 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="E2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D3" s="2"/>
       <c r="E3" s="2"/>
@@ -1222,7 +1276,7 @@
         <v>9</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>10</v>
+        <v>59</v>
       </c>
       <c r="C7" s="6" t="s">
         <v>9</v>
@@ -1238,13 +1292,13 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="B8" s="5" t="s">
-        <v>12</v>
-      </c>
       <c r="C8" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D8" s="7">
         <v>0</v>
@@ -1255,13 +1309,13 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="B9" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="B9" s="5" t="s">
-        <v>14</v>
-      </c>
       <c r="C9" s="6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D9" s="7">
         <v>0</v>
@@ -1272,13 +1326,13 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="B10" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="B10" s="5" t="s">
-        <v>16</v>
-      </c>
       <c r="C10" s="6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D10" s="10">
         <f>MAX(D8-D9,0)</f>
@@ -1291,13 +1345,13 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="B11" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="B11" s="5" t="s">
-        <v>18</v>
-      </c>
       <c r="C11" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D11" s="7">
         <f>D7+D10</f>
@@ -1310,10 +1364,10 @@
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="9"/>
       <c r="B12" s="5" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C12" s="6"/>
-      <c r="D12" s="17">
+      <c r="D12" s="15">
         <v>3.0700000000000002E-2</v>
       </c>
       <c r="E12" s="8">
@@ -1323,13 +1377,13 @@
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="9" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D13" s="7">
         <f>D11*D12</f>
@@ -1342,13 +1396,13 @@
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="B14" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="B14" s="5" t="s">
-        <v>21</v>
-      </c>
       <c r="C14" s="6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D14" s="7">
         <v>0</v>
@@ -1359,13 +1413,13 @@
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B15" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="B15" s="5" t="s">
-        <v>23</v>
-      </c>
       <c r="C15" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D15" s="7">
         <v>0</v>
@@ -1376,13 +1430,13 @@
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="B16" s="5" t="s">
-        <v>25</v>
-      </c>
       <c r="C16" s="6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D16" s="7">
         <f>D34</f>
@@ -1395,13 +1449,13 @@
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>27</v>
+        <v>60</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D17" s="7">
         <f>SUM(D14:D16)</f>
@@ -1415,7 +1469,7 @@
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="9"/>
       <c r="B18" s="5" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C18" s="6"/>
       <c r="D18" s="7">
@@ -1429,13 +1483,13 @@
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="9" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D19" s="7" t="s">
         <v>4</v>
@@ -1444,13 +1498,13 @@
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="9" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C20" s="6" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D20" s="7" t="s">
         <v>4</v>
@@ -1459,13 +1513,13 @@
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="9" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B21" s="14" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C21" s="6" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D21" s="7">
         <f>IF(D13&gt;D17,D13-D17,0)</f>
@@ -1478,13 +1532,13 @@
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="9" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C22" s="6" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D22" s="7" t="s">
         <v>4</v>
@@ -1493,13 +1547,13 @@
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="9" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C23" s="6" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D23" s="7" t="s">
         <v>4</v>
@@ -1508,13 +1562,13 @@
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="9" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B24" s="14" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C24" s="6" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D24" s="7">
         <f>SUM(D21:D23)</f>
@@ -1526,21 +1580,21 @@
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="B26" s="15"/>
-      <c r="C26" s="15"/>
-      <c r="D26" s="15"/>
-      <c r="E26" s="15"/>
-      <c r="F26" s="15"/>
+      <c r="A26" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="B26" s="16"/>
+      <c r="C26" s="16"/>
+      <c r="D26" s="16"/>
+      <c r="E26" s="16"/>
+      <c r="F26" s="16"/>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C27" s="4"/>
       <c r="D27" s="2">
@@ -1552,10 +1606,10 @@
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C28" s="4"/>
       <c r="D28" s="12">
@@ -1569,10 +1623,10 @@
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C29" s="4"/>
       <c r="D29" s="2">
@@ -1586,10 +1640,10 @@
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C30" s="4"/>
       <c r="D30" s="2">
@@ -1602,7 +1656,7 @@
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" s="1"/>
       <c r="B31" s="4" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C31" s="4"/>
       <c r="D31" s="11">
@@ -1615,10 +1669,10 @@
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C32" s="4"/>
       <c r="D32" s="2">
@@ -1632,10 +1686,10 @@
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C33" s="4"/>
       <c r="D33" s="2">
@@ -1649,7 +1703,7 @@
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B34" s="4" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D34" s="3">
         <f>MAX(MIN(D29,D33),0)</f>
@@ -1661,12 +1715,12 @@
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A36" s="16" t="s">
+      <c r="A36" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="B36" s="16"/>
-      <c r="C36" s="16"/>
-      <c r="D36" s="16"/>
+      <c r="B36" s="17"/>
+      <c r="C36" s="17"/>
+      <c r="D36" s="17"/>
     </row>
   </sheetData>
   <mergeCells count="2">
